--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/SM_LeftPanel.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/SM_LeftPanel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C1F00-063E-4D72-8282-C77A3CF2D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7948D-825F-425E-8729-02A06EF3D8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{831E980D-7FAB-4E5C-A6F5-76C369C9F95B}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{831E980D-7FAB-4E5C-A6F5-76C369C9F95B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94359FC2-C42E-4F71-A974-BBAD8A86C50A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C54FB-CBC1-4294-88CD-C0D135C8303A}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
